--- a/biology/Zoologie/Allothereua/Allothereua.xlsx
+++ b/biology/Zoologie/Allothereua/Allothereua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allothereua est un genre de mille-pattes de la famille des Scutigeridae contenant au moins douze espèces connues.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa distribution s'étend de l'Asie centrale (principalement Kazakhstan et Népal) à l'Australie et à la Nouvelle-Calédonie (au moins six espèces recensées), en passant par les Philippines. Une étude de 2009 sur la phylogénie des scutigéromorphes a révélé que Allothereua était polyphylétique ; certaines espèces étaient plus étroitement liées au genre Parascutigera.
 </t>
@@ -542,22 +556,24 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Allothereua bidenticulata Verhoeff, 1925[1],[2],[3],[4],[5]
-Allothereua bidenticulata linderi Fahlander, 1939[1]
-Allothereua bidenticulata vittata Verhoeff, 1925[1]
-Allothereua bidenticulata bidenticulata Verhoeff, 1925[1]
-Allothereua caeruleata Verhoeff, 1925[1],[2],[3],[4]
-Allothereua incola Verhoeff, 1925[2],[3]
-Allothereua kirgisorum Lignau, 1929[1],[3],[4]
-Allothereua lesueri (Lucas, 1840)[2] ou Allothereua lesueurii Lucas (1840)[1],[3],[4]
-Allothereua linderi Fahlander, 1939[5]
-Allothereua maculata (Newport, 1844)[1],[2],[3],[4],[5]
-Allothereua manila Chamberlin, 1944[1],[3],[4]
-Allothereua serrulata Verhoeff, 1925[1],[2],[3],[4],[5]
-Allothereua simplex (Haase, 1887)[2], pourrait-être synonyme de A. maculata (Newport, 1844)
-Allothereua wilsonae Dobroruka, 1979[1],[2],[3],[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Allothereua bidenticulata Verhoeff, 1925
+Allothereua bidenticulata linderi Fahlander, 1939
+Allothereua bidenticulata vittata Verhoeff, 1925
+Allothereua bidenticulata bidenticulata Verhoeff, 1925
+Allothereua caeruleata Verhoeff, 1925
+Allothereua incola Verhoeff, 1925,
+Allothereua kirgisorum Lignau, 1929
+Allothereua lesueri (Lucas, 1840) ou Allothereua lesueurii Lucas (1840)
+Allothereua linderi Fahlander, 1939
+Allothereua maculata (Newport, 1844)
+Allothereua manila Chamberlin, 1944
+Allothereua serrulata Verhoeff, 1925
+Allothereua simplex (Haase, 1887), pourrait-être synonyme de A. maculata (Newport, 1844)
+Allothereua wilsonae Dobroruka, 1979</t>
         </is>
       </c>
     </row>
@@ -585,7 +601,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Karl W. Verhoeff, « Über Scutigeriden. 5. Aufsatz », Zoologischer Anzeiger, vol. 29,‎ 29 mars 1905, p. 73-119 (101-102) (lire en ligne, consulté le 29 juin 2019)</t>
         </is>
